--- a/biology/Zoologie/Alpenus_maculosa/Alpenus_maculosa.xlsx
+++ b/biology/Zoologie/Alpenus_maculosa/Alpenus_maculosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpenus maculosus est une espèce de papillons de nuit de la famille des Erebidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alpenus maculosus se rencontre le long de la côte de l'Or et à Lagos, en Sierra Leone, en Guinée, en Angola, au Cameroun, au Nigeria, en République du Congo, en Ouganda et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alpenus maculosus se rencontre le long de la côte de l'Or et à Lagos, en Sierra Leone, en Guinée, en Angola, au Cameroun, au Nigeria, en République du Congo, en Ouganda et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves se nourrissent de Commelina, Aster, Bidens pilosa, Senecio abyssinicus, Ipomoea, Zea mays, Arachis hypogaea, Phaseolus, Pseudarthria, Voandzeia subterranea, Gossypium et Theobroma cacao .
 </t>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Alpenus maculosus a été décrite pour la première fois en 1781 par le naturaliste néerlandais Caspar Stoll (1725-1791)[2].
-Alpenus maculosa a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Alpenus maculosus a été décrite pour la première fois en 1781 par le naturaliste néerlandais Caspar Stoll (1725-1791).
+Alpenus maculosa a pour synonymes :
 Alpenus aequalis Walker, 1855
 Alpenus assimilis Hübner, 1820
 Alpenus eyralpenus Plötz, 1880
